--- a/easy-excel/src/test/resources/test-export-reveal.xlsx
+++ b/easy-excel/src/test/resources/test-export-reveal.xlsx
@@ -174,54 +174,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+      <protection locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
       <protection locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+      <protection locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
       <protection locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
+      <protection locked="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
       <protection locked="false"/>
     </xf>
   </cellXfs>
@@ -265,25 +249,25 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -291,25 +275,25 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -317,25 +301,25 @@
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -343,25 +327,25 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -369,25 +353,25 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -395,30 +379,30 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E129" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection password="E129" sheet="true" scenarios="true" objects="true" insertRows="false" selectLockedCells="false" selectUnlockedCells="false"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>